--- a/biology/Zoologie/Chamaelycus_werneri/Chamaelycus_werneri.xlsx
+++ b/biology/Zoologie/Chamaelycus_werneri/Chamaelycus_werneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaelycus werneri est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaelycus werneri est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, au Gabon et en République du Congo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, au Gabon et en République du Congo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Chamaelycus werneri[2], une femelle, mesure 350 mm dont 45 mm pour la queue. Cette espèce a le corps brun sombre, la face ventrale étant un peu plus clair.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Chamaelycus werneri, une femelle, mesure 350 mm dont 45 mm pour la queue. Cette espèce a le corps brun sombre, la face ventrale étant un peu plus clair.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Werner[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Franz Werner.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mocquard, 1902 : Sur des reptiles et batraciens de l’Afrique Orientale Anglaise, du Gabon et de la Guinée Française (Région de Kouroussa). Bulletin du Museum National d'Histoire Naturelle de Paris, vol. 8, p. 404-417 (texte intégral).</t>
         </is>
